--- a/biology/Botanique/Coulée_verte_(Reims)/Coulée_verte_(Reims).xlsx
+++ b/biology/Botanique/Coulée_verte_(Reims)/Coulée_verte_(Reims).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coul%C3%A9e_verte_(Reims)</t>
+          <t>Coulée_verte_(Reims)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Coulée verte de Reims, en France, est une promenade aménagée à l'emplacement d'une voie hallage du canal de l'Aisne à la Marne sur une longueur de 18 km environ.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coul%C3%A9e_verte_(Reims)</t>
+          <t>Coulée_verte_(Reims)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Existant depuis la création du canal, elle traverse l'agglomération rémoise. Aménagée au fur et à mesure, elle fut goudronnée, éclairée, pose de bancs et d'aires de sport. Elle longe les anciens bains de Reims, le port Colbert, le port de plaisance, la zone Farman.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coul%C3%A9e_verte_(Reims)</t>
+          <t>Coulée_verte_(Reims)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Intérêt</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle permet de traverser l'agglomération du nord vers le sud, elle est utilisée par la Via Francigena, par des associations sportives aquatiques comme les Régates rémoises et relie de nombreux parc et jardins.
 </t>
